--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04642948062583634</v>
+        <v>0.223982636080522</v>
       </c>
       <c r="C2">
-        <v>0.2965858768643577</v>
+        <v>0.7951022744350149</v>
       </c>
       <c r="D2">
-        <v>0.1211486527137855</v>
+        <v>1.433395224409647</v>
       </c>
       <c r="E2">
-        <v>0.3480641502852391</v>
+        <v>1.197244847309708</v>
       </c>
       <c r="F2">
-        <v>0.3579752231001048</v>
+        <v>1.220503617491155</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07710192660348104</v>
+        <v>0.03460922587986636</v>
       </c>
       <c r="C3">
-        <v>0.3275181423519703</v>
+        <v>0.5169290182150836</v>
       </c>
       <c r="D3">
-        <v>0.1806004724994779</v>
+        <v>0.4531020548674881</v>
       </c>
       <c r="E3">
-        <v>0.4249711431373639</v>
+        <v>0.6731285574594856</v>
       </c>
       <c r="F3">
-        <v>0.4349832324714388</v>
+        <v>0.699687747770943</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06899662371576315</v>
+        <v>0.05542554409107694</v>
       </c>
       <c r="C4">
-        <v>0.2620176638063245</v>
+        <v>0.5672532340729006</v>
       </c>
       <c r="D4">
-        <v>0.09766707149571256</v>
+        <v>0.5863441778978949</v>
       </c>
       <c r="E4">
-        <v>0.3125173139135055</v>
+        <v>0.765731139433349</v>
       </c>
       <c r="F4">
-        <v>0.3183592094900543</v>
+        <v>0.7976822244661111</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1035751530193068</v>
+        <v>0.09157044451040193</v>
       </c>
       <c r="C5">
-        <v>0.3321382172543214</v>
+        <v>0.6935010056718082</v>
       </c>
       <c r="D5">
-        <v>0.1880858394500914</v>
+        <v>0.734265071824128</v>
       </c>
       <c r="E5">
-        <v>0.4336886434414572</v>
+        <v>0.8568926839599741</v>
       </c>
       <c r="F5">
-        <v>0.4416942719119532</v>
+        <v>0.8935703207179192</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1569404967837869</v>
+        <v>0.1506695717468531</v>
       </c>
       <c r="C6">
-        <v>0.3655869259556198</v>
+        <v>0.7208337799200664</v>
       </c>
       <c r="D6">
-        <v>0.2335277915346266</v>
+        <v>0.8151397471296369</v>
       </c>
       <c r="E6">
-        <v>0.4832471329812797</v>
+        <v>0.9028508997224497</v>
       </c>
       <c r="F6">
-        <v>0.481776195163832</v>
+        <v>0.9383427632914298</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2756649293590284</v>
+        <v>0.1498722168069911</v>
       </c>
       <c r="C7">
-        <v>0.5122902799115394</v>
+        <v>0.8124485921203141</v>
       </c>
       <c r="D7">
-        <v>0.3418754211838984</v>
+        <v>1.075051427048039</v>
       </c>
       <c r="E7">
-        <v>0.5847011383466757</v>
+        <v>1.036846867694569</v>
       </c>
       <c r="F7">
-        <v>0.5569544977431073</v>
+        <v>1.088192751256446</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3478645530026049</v>
+        <v>0.09843046095639814</v>
       </c>
       <c r="C8">
-        <v>0.5935659859322689</v>
+        <v>0.9381895697043964</v>
       </c>
       <c r="D8">
-        <v>0.5027782033188022</v>
+        <v>1.212929050766225</v>
       </c>
       <c r="E8">
-        <v>0.7090685462765939</v>
+        <v>1.101330581962666</v>
       </c>
       <c r="F8">
-        <v>0.7134596051009476</v>
+        <v>1.201619155201249</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3113671986232163</v>
+        <v>-0.1929832571191242</v>
       </c>
       <c r="C9">
-        <v>0.3113671986232163</v>
+        <v>0.4511597977240172</v>
       </c>
       <c r="D9">
-        <v>0.09694953237846941</v>
+        <v>0.2784649223588765</v>
       </c>
       <c r="E9">
-        <v>0.3113671986232163</v>
+        <v>0.5276977566361984</v>
+      </c>
+      <c r="F9">
+        <v>0.6015260403721985</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.2080565315694543</v>
+      </c>
+      <c r="C10">
+        <v>0.2080565315694543</v>
+      </c>
+      <c r="D10">
+        <v>0.04328752032871131</v>
+      </c>
+      <c r="E10">
+        <v>0.2080565315694543</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.223982636080522</v>
+        <v>0.04642948062583634</v>
       </c>
       <c r="C2">
-        <v>0.7951022744350149</v>
+        <v>0.2965858768643577</v>
       </c>
       <c r="D2">
-        <v>1.433395224409647</v>
+        <v>0.1211486527137855</v>
       </c>
       <c r="E2">
-        <v>1.197244847309708</v>
+        <v>0.3480641502852391</v>
       </c>
       <c r="F2">
-        <v>1.220503617491155</v>
+        <v>0.3579752231001048</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03460922587986636</v>
+        <v>0.07710192660348104</v>
       </c>
       <c r="C3">
-        <v>0.5169290182150836</v>
+        <v>0.3275181423519703</v>
       </c>
       <c r="D3">
-        <v>0.4531020548674881</v>
+        <v>0.1806004724994779</v>
       </c>
       <c r="E3">
-        <v>0.6731285574594856</v>
+        <v>0.4249711431373639</v>
       </c>
       <c r="F3">
-        <v>0.699687747770943</v>
+        <v>0.4349832324714388</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05542554409107694</v>
+        <v>0.06899662371576315</v>
       </c>
       <c r="C4">
-        <v>0.5672532340729006</v>
+        <v>0.2620176638063245</v>
       </c>
       <c r="D4">
-        <v>0.5863441778978949</v>
+        <v>0.09766707149571256</v>
       </c>
       <c r="E4">
-        <v>0.765731139433349</v>
+        <v>0.3125173139135055</v>
       </c>
       <c r="F4">
-        <v>0.7976822244661111</v>
+        <v>0.3183592094900543</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09157044451040193</v>
+        <v>0.1035751530193068</v>
       </c>
       <c r="C5">
-        <v>0.6935010056718082</v>
+        <v>0.3321382172543214</v>
       </c>
       <c r="D5">
-        <v>0.734265071824128</v>
+        <v>0.1880858394500914</v>
       </c>
       <c r="E5">
-        <v>0.8568926839599741</v>
+        <v>0.4336886434414572</v>
       </c>
       <c r="F5">
-        <v>0.8935703207179192</v>
+        <v>0.4416942719119532</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1506695717468531</v>
+        <v>0.1569404967837869</v>
       </c>
       <c r="C6">
-        <v>0.7208337799200664</v>
+        <v>0.3655869259556198</v>
       </c>
       <c r="D6">
-        <v>0.8151397471296369</v>
+        <v>0.2335277915346266</v>
       </c>
       <c r="E6">
-        <v>0.9028508997224497</v>
+        <v>0.4832471329812797</v>
       </c>
       <c r="F6">
-        <v>0.9383427632914298</v>
+        <v>0.481776195163832</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1498722168069911</v>
+        <v>0.1649274464288797</v>
       </c>
       <c r="C7">
-        <v>0.8124485921203141</v>
+        <v>0.4479266052260063</v>
       </c>
       <c r="D7">
-        <v>1.075051427048039</v>
+        <v>0.276931746074847</v>
       </c>
       <c r="E7">
-        <v>1.036846867694569</v>
+        <v>0.5262430484812574</v>
       </c>
       <c r="F7">
-        <v>1.088192751256446</v>
+        <v>0.5300443556207896</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09843046095639814</v>
+        <v>0.2184461953069695</v>
       </c>
       <c r="C8">
-        <v>0.9381895697043964</v>
+        <v>0.4442913753428973</v>
       </c>
       <c r="D8">
-        <v>1.212929050766225</v>
+        <v>0.3428095254168975</v>
       </c>
       <c r="E8">
-        <v>1.101330581962666</v>
+        <v>0.5854993812267418</v>
       </c>
       <c r="F8">
-        <v>1.201619155201249</v>
+        <v>0.5950705354891705</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1929832571191242</v>
+        <v>0.04181093721508944</v>
       </c>
       <c r="C9">
-        <v>0.4511597977240172</v>
+        <v>0.2983623655071265</v>
       </c>
       <c r="D9">
-        <v>0.2784649223588765</v>
+        <v>0.09486659670334104</v>
       </c>
       <c r="E9">
-        <v>0.5276977566361984</v>
+        <v>0.308004215398655</v>
       </c>
       <c r="F9">
-        <v>0.6015260403721985</v>
+        <v>0.3737347499882843</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2080565315694543</v>
+        <v>-0.2839541438535775</v>
       </c>
       <c r="C10">
-        <v>0.2080565315694543</v>
+        <v>0.2839541438535775</v>
       </c>
       <c r="D10">
-        <v>0.04328752032871131</v>
+        <v>0.08062995581161821</v>
       </c>
       <c r="E10">
-        <v>0.2080565315694543</v>
+        <v>0.2839541438535775</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04642948062583634</v>
+        <v>0.02846637460976744</v>
       </c>
       <c r="C2">
-        <v>0.2965858768643577</v>
+        <v>0.9430602768606053</v>
       </c>
       <c r="D2">
-        <v>0.1211486527137855</v>
+        <v>2.648581526649609</v>
       </c>
       <c r="E2">
-        <v>0.3480641502852391</v>
+        <v>1.627446320666095</v>
       </c>
       <c r="F2">
-        <v>0.3579752231001048</v>
+        <v>1.643388759852491</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07710192660348104</v>
+        <v>-0.1943718813857691</v>
       </c>
       <c r="C3">
-        <v>0.3275181423519703</v>
+        <v>0.7420322100163707</v>
       </c>
       <c r="D3">
-        <v>0.1806004724994779</v>
+        <v>1.301007984511005</v>
       </c>
       <c r="E3">
-        <v>0.4249711431373639</v>
+        <v>1.140617369897112</v>
       </c>
       <c r="F3">
-        <v>0.4349832324714388</v>
+        <v>1.13534475400492</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06899662371576315</v>
+        <v>-0.05603653138027285</v>
       </c>
       <c r="C4">
-        <v>0.2620176638063245</v>
+        <v>0.7181205273575723</v>
       </c>
       <c r="D4">
-        <v>0.09766707149571256</v>
+        <v>1.474592598453738</v>
       </c>
       <c r="E4">
-        <v>0.3125173139135055</v>
+        <v>1.214328044003653</v>
       </c>
       <c r="F4">
-        <v>0.3183592094900543</v>
+        <v>1.22560506124038</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1035751530193068</v>
+        <v>-0.151782044080011</v>
       </c>
       <c r="C5">
-        <v>0.3321382172543214</v>
+        <v>0.7437703319808541</v>
       </c>
       <c r="D5">
-        <v>0.1880858394500914</v>
+        <v>1.325335475341544</v>
       </c>
       <c r="E5">
-        <v>0.4336886434414572</v>
+        <v>1.151232155276052</v>
       </c>
       <c r="F5">
-        <v>0.4416942719119532</v>
+        <v>1.153258924895003</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1569404967837869</v>
+        <v>-0.01202353621938327</v>
       </c>
       <c r="C6">
-        <v>0.3655869259556198</v>
+        <v>0.9685194911816654</v>
       </c>
       <c r="D6">
-        <v>0.2335277915346266</v>
+        <v>2.135832188922473</v>
       </c>
       <c r="E6">
-        <v>0.4832471329812797</v>
+        <v>1.461448661062876</v>
       </c>
       <c r="F6">
-        <v>0.481776195163832</v>
+        <v>1.47719857003534</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1649274464288797</v>
+        <v>-0.1554833155668876</v>
       </c>
       <c r="C7">
-        <v>0.4479266052260063</v>
+        <v>0.8002215085028028</v>
       </c>
       <c r="D7">
-        <v>0.276931746074847</v>
+        <v>1.375155290479728</v>
       </c>
       <c r="E7">
-        <v>0.5262430484812574</v>
+        <v>1.172670154169419</v>
       </c>
       <c r="F7">
-        <v>0.5300443556207896</v>
+        <v>1.175160419656847</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2184461953069695</v>
+        <v>0.04659670587843785</v>
       </c>
       <c r="C8">
-        <v>0.4442913753428973</v>
+        <v>0.8050767692874348</v>
       </c>
       <c r="D8">
-        <v>0.3428095254168975</v>
+        <v>1.154340410675184</v>
       </c>
       <c r="E8">
-        <v>0.5854993812267418</v>
+        <v>1.074402350460564</v>
       </c>
       <c r="F8">
-        <v>0.5950705354891705</v>
+        <v>1.085520529677319</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04181093721508944</v>
+        <v>-0.1084043684214821</v>
       </c>
       <c r="C9">
-        <v>0.2983623655071265</v>
+        <v>0.735808405588202</v>
       </c>
       <c r="D9">
-        <v>0.09486659670334104</v>
+        <v>1.20283139358349</v>
       </c>
       <c r="E9">
-        <v>0.308004215398655</v>
+        <v>1.096736702031755</v>
       </c>
       <c r="F9">
-        <v>0.3737347499882843</v>
+        <v>1.1039834322736</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2839541438535775</v>
+        <v>0.1182394667038753</v>
       </c>
       <c r="C10">
-        <v>0.2839541438535775</v>
+        <v>1.047860666370489</v>
       </c>
       <c r="D10">
-        <v>0.08062995581161821</v>
+        <v>2.217418452168737</v>
       </c>
       <c r="E10">
-        <v>0.2839541438535775</v>
+        <v>1.489099879849816</v>
+      </c>
+      <c r="F10">
+        <v>1.501965607916916</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.08993503749128429</v>
+      </c>
+      <c r="C11">
+        <v>0.8551623832460461</v>
+      </c>
+      <c r="D11">
+        <v>1.503988522260922</v>
+      </c>
+      <c r="E11">
+        <v>1.226372097799409</v>
+      </c>
+      <c r="F11">
+        <v>1.237895626577417</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02846637460976744</v>
+        <v>-0.3309730362341788</v>
       </c>
       <c r="C2">
-        <v>0.9430602768606053</v>
+        <v>0.6874379636966282</v>
       </c>
       <c r="D2">
-        <v>2.648581526649609</v>
+        <v>1.909552438266325</v>
       </c>
       <c r="E2">
-        <v>1.627446320666095</v>
+        <v>1.381865564469397</v>
       </c>
       <c r="F2">
-        <v>1.643388759852491</v>
+        <v>1.357907196056604</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1943718813857691</v>
+        <v>0.03815854055786114</v>
       </c>
       <c r="C3">
-        <v>0.7420322100163707</v>
+        <v>1.119444934519008</v>
       </c>
       <c r="D3">
-        <v>1.301007984511005</v>
+        <v>3.277134428859379</v>
       </c>
       <c r="E3">
-        <v>1.140617369897112</v>
+        <v>1.810285731275419</v>
       </c>
       <c r="F3">
-        <v>1.13534475400492</v>
+        <v>1.832367406801354</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05603653138027285</v>
+        <v>-0.2513998558810283</v>
       </c>
       <c r="C4">
-        <v>0.7181205273575723</v>
+        <v>0.8541694100438215</v>
       </c>
       <c r="D4">
-        <v>1.474592598453738</v>
+        <v>1.593836722990716</v>
       </c>
       <c r="E4">
-        <v>1.214328044003653</v>
+        <v>1.262472464250495</v>
       </c>
       <c r="F4">
-        <v>1.22560506124038</v>
+        <v>1.252949273720461</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.151782044080011</v>
+        <v>-0.07458524723922935</v>
       </c>
       <c r="C5">
-        <v>0.7437703319808541</v>
+        <v>0.8386825321727622</v>
       </c>
       <c r="D5">
-        <v>1.325335475341544</v>
+        <v>1.828534390886613</v>
       </c>
       <c r="E5">
-        <v>1.151232155276052</v>
+        <v>1.352233112627631</v>
       </c>
       <c r="F5">
-        <v>1.153258924895003</v>
+        <v>1.367824683282241</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01202353621938327</v>
+        <v>-0.2016351845399217</v>
       </c>
       <c r="C6">
-        <v>0.9685194911816654</v>
+        <v>0.8634258771531403</v>
       </c>
       <c r="D6">
-        <v>2.135832188922473</v>
+        <v>1.6349713752315</v>
       </c>
       <c r="E6">
-        <v>1.461448661062876</v>
+        <v>1.278659992035217</v>
       </c>
       <c r="F6">
-        <v>1.47719857003534</v>
+        <v>1.279610961236435</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1554833155668876</v>
+        <v>-0.05768949108510493</v>
       </c>
       <c r="C7">
-        <v>0.8002215085028028</v>
+        <v>1.131474238540056</v>
       </c>
       <c r="D7">
-        <v>1.375155290479728</v>
+        <v>2.649968512540811</v>
       </c>
       <c r="E7">
-        <v>1.172670154169419</v>
+        <v>1.627872388285031</v>
       </c>
       <c r="F7">
-        <v>1.175160419656847</v>
+        <v>1.649290218556056</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04659670587843785</v>
+        <v>-0.2756624231401172</v>
       </c>
       <c r="C8">
-        <v>0.8050767692874348</v>
+        <v>0.8747661734718721</v>
       </c>
       <c r="D8">
-        <v>1.154340410675184</v>
+        <v>1.641880542173012</v>
       </c>
       <c r="E8">
-        <v>1.074402350460564</v>
+        <v>1.281358865491246</v>
       </c>
       <c r="F8">
-        <v>1.085520529677319</v>
+        <v>1.269106184267327</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1084043684214821</v>
+        <v>-0.04407887464051687</v>
       </c>
       <c r="C9">
-        <v>0.735808405588202</v>
+        <v>0.8715491677183831</v>
       </c>
       <c r="D9">
-        <v>1.20283139358349</v>
+        <v>1.335121592579382</v>
       </c>
       <c r="E9">
-        <v>1.096736702031755</v>
+        <v>1.155474617886253</v>
       </c>
       <c r="F9">
-        <v>1.1039834322736</v>
+        <v>1.171490410553548</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1182394667038753</v>
+        <v>-0.2588473913255688</v>
       </c>
       <c r="C10">
-        <v>1.047860666370489</v>
+        <v>0.7912842664960333</v>
       </c>
       <c r="D10">
-        <v>2.217418452168737</v>
+        <v>1.430082320060018</v>
       </c>
       <c r="E10">
-        <v>1.489099879849816</v>
+        <v>1.195860493561025</v>
       </c>
       <c r="F10">
-        <v>1.501965607916916</v>
+        <v>1.185067851710109</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08993503749128429</v>
+        <v>0.02168306473352078</v>
       </c>
       <c r="C11">
-        <v>0.8551623832460461</v>
+        <v>1.183415881580869</v>
       </c>
       <c r="D11">
-        <v>1.503988522260922</v>
+        <v>2.744833036578304</v>
       </c>
       <c r="E11">
-        <v>1.226372097799409</v>
+        <v>1.656753764618721</v>
       </c>
       <c r="F11">
-        <v>1.237895626577417</v>
+        <v>1.682297304676594</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3309730362341788</v>
+        <v>-0.2841412015873874</v>
       </c>
       <c r="C2">
-        <v>0.6874379636966282</v>
+        <v>1.042070573346424</v>
       </c>
       <c r="D2">
-        <v>1.909552438266325</v>
+        <v>2.569661227533701</v>
       </c>
       <c r="E2">
-        <v>1.381865564469397</v>
+        <v>1.603016290476707</v>
       </c>
       <c r="F2">
-        <v>1.357907196056604</v>
+        <v>1.59333094653812</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03815854055786114</v>
+        <v>-0.008109042937529671</v>
       </c>
       <c r="C3">
-        <v>1.119444934519008</v>
+        <v>1.323519731341013</v>
       </c>
       <c r="D3">
-        <v>3.277134428859379</v>
+        <v>3.714640814585274</v>
       </c>
       <c r="E3">
-        <v>1.810285731275419</v>
+        <v>1.927340347366099</v>
       </c>
       <c r="F3">
-        <v>1.832367406801354</v>
+        <v>1.946890523951712</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2513998558810283</v>
+        <v>-0.2214639157450712</v>
       </c>
       <c r="C4">
-        <v>0.8541694100438215</v>
+        <v>1.034360074296371</v>
       </c>
       <c r="D4">
-        <v>1.593836722990716</v>
+        <v>2.089489174149197</v>
       </c>
       <c r="E4">
-        <v>1.262472464250495</v>
+        <v>1.445506545868678</v>
       </c>
       <c r="F4">
-        <v>1.252949273720461</v>
+        <v>1.44324361610424</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07458524723922935</v>
+        <v>-0.08151289187847424</v>
       </c>
       <c r="C5">
-        <v>0.8386825321727622</v>
+        <v>0.8998183431199257</v>
       </c>
       <c r="D5">
-        <v>1.828534390886613</v>
+        <v>1.899613993327096</v>
       </c>
       <c r="E5">
-        <v>1.352233112627631</v>
+        <v>1.378264848759881</v>
       </c>
       <c r="F5">
-        <v>1.367824683282241</v>
+        <v>1.390412022247331</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2016351845399217</v>
+        <v>-0.1770401647779908</v>
       </c>
       <c r="C6">
-        <v>0.8634258771531403</v>
+        <v>1.055389318155083</v>
       </c>
       <c r="D6">
-        <v>1.6349713752315</v>
+        <v>2.149987343866462</v>
       </c>
       <c r="E6">
-        <v>1.278659992035217</v>
+        <v>1.466283514149451</v>
       </c>
       <c r="F6">
-        <v>1.279610961236435</v>
+        <v>1.471292494671493</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05768949108510493</v>
+        <v>-0.005397054805324882</v>
       </c>
       <c r="C7">
-        <v>1.131474238540056</v>
+        <v>1.29408716778638</v>
       </c>
       <c r="D7">
-        <v>2.649968512540811</v>
+        <v>3.181217173515479</v>
       </c>
       <c r="E7">
-        <v>1.627872388285031</v>
+        <v>1.783596695869186</v>
       </c>
       <c r="F7">
-        <v>1.649290218556056</v>
+        <v>1.803297289131377</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2756624231401172</v>
+        <v>-0.1616785476072556</v>
       </c>
       <c r="C8">
-        <v>0.8747661734718721</v>
+        <v>1.097639423367275</v>
       </c>
       <c r="D8">
-        <v>1.641880542173012</v>
+        <v>2.157715063143125</v>
       </c>
       <c r="E8">
-        <v>1.281358865491246</v>
+        <v>1.468916288677855</v>
       </c>
       <c r="F8">
-        <v>1.269106184267327</v>
+        <v>1.476489078611541</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04407887464051687</v>
+        <v>0.05232846318138909</v>
       </c>
       <c r="C9">
-        <v>0.8715491677183831</v>
+        <v>0.886449672730184</v>
       </c>
       <c r="D9">
-        <v>1.335121592579382</v>
+        <v>1.305484069316138</v>
       </c>
       <c r="E9">
-        <v>1.155474617886253</v>
+        <v>1.142577817619499</v>
       </c>
       <c r="F9">
-        <v>1.171490410553548</v>
+        <v>1.154574473665487</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2588473913255688</v>
+        <v>-0.1088810105591623</v>
       </c>
       <c r="C10">
-        <v>0.7912842664960333</v>
+        <v>1.064859504688054</v>
       </c>
       <c r="D10">
-        <v>1.430082320060018</v>
+        <v>2.120173186574139</v>
       </c>
       <c r="E10">
-        <v>1.195860493561025</v>
+        <v>1.45608144915528</v>
       </c>
       <c r="F10">
-        <v>1.185067851710109</v>
+        <v>1.469188947141305</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02168306473352078</v>
+        <v>0.1284399207036865</v>
       </c>
       <c r="C11">
-        <v>1.183415881580869</v>
+        <v>1.315389267634382</v>
       </c>
       <c r="D11">
-        <v>2.744833036578304</v>
+        <v>2.939163877379534</v>
       </c>
       <c r="E11">
-        <v>1.656753764618721</v>
+        <v>1.71439898430311</v>
       </c>
       <c r="F11">
-        <v>1.682297304676594</v>
+        <v>1.73030391165523</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.005397054805324882</v>
+        <v>-0.3456593728802653</v>
       </c>
       <c r="C7">
-        <v>1.29408716778638</v>
+        <v>1.223567895597836</v>
       </c>
       <c r="D7">
-        <v>3.181217173515479</v>
+        <v>3.031172027098284</v>
       </c>
       <c r="E7">
-        <v>1.783596695869186</v>
+        <v>1.741026141991637</v>
       </c>
       <c r="F7">
-        <v>1.803297289131377</v>
+        <v>1.729273255816612</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1616785476072556</v>
+        <v>-0.3394225716372868</v>
       </c>
       <c r="C8">
-        <v>1.097639423367275</v>
+        <v>1.162219116590446</v>
       </c>
       <c r="D8">
-        <v>2.157715063143125</v>
+        <v>2.462144046345596</v>
       </c>
       <c r="E8">
-        <v>1.468916288677855</v>
+        <v>1.569122062283746</v>
       </c>
       <c r="F8">
-        <v>1.476489078611541</v>
+        <v>1.553103036180247</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05232846318138909</v>
+        <v>-0.01562264765185476</v>
       </c>
       <c r="C9">
-        <v>0.886449672730184</v>
+        <v>0.5074306157638555</v>
       </c>
       <c r="D9">
-        <v>1.305484069316138</v>
+        <v>0.4207352464598088</v>
       </c>
       <c r="E9">
-        <v>1.142577817619499</v>
+        <v>0.6486410767595657</v>
       </c>
       <c r="F9">
-        <v>1.154574473665487</v>
+        <v>0.6652986502633749</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1088810105591623</v>
+        <v>0.1076720123623735</v>
       </c>
       <c r="C10">
-        <v>1.064859504688054</v>
+        <v>0.5887385248463797</v>
       </c>
       <c r="D10">
-        <v>2.120173186574139</v>
+        <v>0.5656078948099947</v>
       </c>
       <c r="E10">
-        <v>1.45608144915528</v>
+        <v>0.7520690758234876</v>
       </c>
       <c r="F10">
-        <v>1.469188947141305</v>
+        <v>0.774714475539742</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1284399207036865</v>
+        <v>0.1519798832969088</v>
       </c>
       <c r="C11">
-        <v>1.315389267634382</v>
+        <v>0.4542257695548669</v>
       </c>
       <c r="D11">
-        <v>2.939163877379534</v>
+        <v>0.2920572055036713</v>
       </c>
       <c r="E11">
-        <v>1.71439898430311</v>
+        <v>0.5404231726190794</v>
       </c>
       <c r="F11">
-        <v>1.73030391165523</v>
+        <v>0.5798268282176253</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
